--- a/data/trans_dic/P69$dolorCabeza-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorCabeza-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.400534465399797</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4321371702179288</v>
+        <v>0.4321371702179289</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3709167378830477</v>
@@ -708,36 +708,36 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1608441378530207</v>
+        <v>0.1608224407908419</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.05667790409777466</v>
+        <v>0.05817553019392797</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.333729120766106</v>
+        <v>0.3418903981449341</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09611816851436093</v>
+        <v>0.09578721000278689</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1523753419123967</v>
+        <v>0.1568396652971661</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1127065420301997</v>
+        <v>0.1154531276001297</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2592988301517019</v>
+        <v>0.2595977255327735</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04702359562407252</v>
+        <v>0.04638519800131249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.135371395464397</v>
+        <v>0.1353200838579456</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06867955432380554</v>
+        <v>0.07443222510541077</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4258458688643875</v>
+        <v>0.436862874493818</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.4796230354052038</v>
+        <v>0.4543135710599602</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.761652827741056</v>
+        <v>0.8001099037331425</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6073021952451461</v>
+        <v>0.6096572010649376</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7440429887183853</v>
+        <v>0.7336345744264534</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7470213803603998</v>
+        <v>0.7830949335177098</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4870050154712226</v>
+        <v>0.5023062523744704</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3556957066683927</v>
+        <v>0.3615061813825057</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4885304295441988</v>
+        <v>0.475974185190079</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5792702544778997</v>
+        <v>0.5856112178015068</v>
       </c>
     </row>
     <row r="7">
@@ -801,7 +801,7 @@
         <v>0.2565660384216288</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4637999235555316</v>
+        <v>0.4637999235555315</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4506084535888488</v>
@@ -836,40 +836,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2661329680859428</v>
+        <v>0.2676877739672467</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2221664615618595</v>
+        <v>0.2212087202267069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1706354881581093</v>
+        <v>0.1663702202393764</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3055841373088134</v>
+        <v>0.3036955176323684</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3373367485803821</v>
+        <v>0.3519673335842343</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.249523140170749</v>
+        <v>0.2544868883730025</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3051173026309512</v>
+        <v>0.3259626144673648</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.299161459163986</v>
+        <v>0.304564786762705</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.318125730598278</v>
+        <v>0.3168918215097314</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.267473188776466</v>
+        <v>0.2645849325526763</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2503993366606763</v>
+        <v>0.2464831048942785</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3402715832199391</v>
+        <v>0.3431736440655129</v>
       </c>
     </row>
     <row r="9">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4358348416185555</v>
+        <v>0.4272767213717097</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4365709971211235</v>
+        <v>0.4147738316710263</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3709523618749175</v>
+        <v>0.3584234628657827</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6305509594166697</v>
+        <v>0.6244962596088747</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5674127919122006</v>
+        <v>0.561676506379749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5099905603205964</v>
+        <v>0.4975880072397954</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5839171102870176</v>
+        <v>0.5921361204967952</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5826426416323341</v>
+        <v>0.5903076575923448</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4539844582272899</v>
+        <v>0.4500708082012619</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4252221558186735</v>
+        <v>0.423718129028488</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4221251816443081</v>
+        <v>0.4148978090667395</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5638865888717352</v>
+        <v>0.574150876649666</v>
       </c>
     </row>
     <row r="10">
@@ -949,7 +949,7 @@
         <v>0.3618061581876996</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2856561970992025</v>
+        <v>0.2856561970992024</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3015900781802401</v>
@@ -972,40 +972,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1892464306932339</v>
+        <v>0.1939216826509348</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1900289274955959</v>
+        <v>0.1856858684493669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1972747004683527</v>
+        <v>0.2065476425619173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1430085996062856</v>
+        <v>0.1299227600441608</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.245397870074363</v>
+        <v>0.2513591020300837</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3683375199121467</v>
+        <v>0.3652860926431981</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2591576690345233</v>
+        <v>0.263110724324349</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2098061009482155</v>
+        <v>0.2082756721258902</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2407319151589234</v>
+        <v>0.2349535824841178</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2946407501965683</v>
+        <v>0.2927280366195347</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2489027155971832</v>
+        <v>0.2526896813202364</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.189012201487093</v>
+        <v>0.187607014477253</v>
       </c>
     </row>
     <row r="12">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.351281484356132</v>
+        <v>0.3502953162277861</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3693295211391702</v>
+        <v>0.3597324756987702</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3822231769747515</v>
+        <v>0.3900730131570189</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3084487155904179</v>
+        <v>0.3142104184218978</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4774307185037923</v>
+        <v>0.4834115185601205</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6193913659864191</v>
+        <v>0.6132311227592163</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4813968095544662</v>
+        <v>0.483085435812265</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3775359339426022</v>
+        <v>0.374577668968061</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3714040351969762</v>
+        <v>0.3749730863372874</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4431519722250753</v>
+        <v>0.4442250024800311</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3833303252698284</v>
+        <v>0.3906277271034826</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3059699828018637</v>
+        <v>0.3079140554124199</v>
       </c>
     </row>
     <row r="13">
@@ -1073,7 +1073,7 @@
         <v>0.2922980226897249</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2121145570867804</v>
+        <v>0.2121145570867803</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.336608302826491</v>
@@ -1085,7 +1085,7 @@
         <v>0.3912535866479307</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3413170814283868</v>
+        <v>0.3413170814283869</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3025942690713087</v>
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1994082177570284</v>
+        <v>0.2012685393101329</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1581023544719381</v>
+        <v>0.1629296836912635</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2034810313341102</v>
+        <v>0.1930780848262263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.135761493138831</v>
+        <v>0.1434424022302343</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1916240965138846</v>
+        <v>0.1926359921711013</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1999342681464828</v>
+        <v>0.2089970875558169</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2521450134304423</v>
+        <v>0.2564163620864414</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2709656656722377</v>
+        <v>0.2683931220787697</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2214060876375553</v>
+        <v>0.2248074996195997</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2060243164833081</v>
+        <v>0.2012762479945986</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2427359205358774</v>
+        <v>0.2552511103382933</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2291101020321242</v>
+        <v>0.2310938571346697</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3832693379103519</v>
+        <v>0.3910931686076711</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3426411273956118</v>
+        <v>0.352709642336101</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4078740841784053</v>
+        <v>0.3888970810508897</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.302095781759142</v>
+        <v>0.3032570838839854</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5049783569017271</v>
+        <v>0.5126787189972779</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5327996896578435</v>
+        <v>0.5370139056190993</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5224774790249189</v>
+        <v>0.5295075393780957</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4116737068223505</v>
+        <v>0.4108706327315553</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3846508535606902</v>
+        <v>0.3926066627358342</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3703239737052799</v>
+        <v>0.3696091337030578</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4147273807366788</v>
+        <v>0.4124609536304079</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3356183169622782</v>
+        <v>0.3382919941961998</v>
       </c>
     </row>
     <row r="16">
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1546327364483888</v>
+        <v>0.1542174879406232</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09699402040307659</v>
+        <v>0.1132208679766392</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.145313854014002</v>
+        <v>0.1366760976080318</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1341939640320721</v>
+        <v>0.1315074287432041</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.143099435229994</v>
+        <v>0.1425892335174304</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2063710309880434</v>
+        <v>0.20805770702482</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3230664409111196</v>
+        <v>0.332173338182947</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2019989817882734</v>
+        <v>0.1988194640800885</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.18969163609252</v>
+        <v>0.1819269469802682</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1762970312520896</v>
+        <v>0.1715063087389303</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2555612753677631</v>
+        <v>0.2614983948503083</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1904605925466849</v>
+        <v>0.1854395773992852</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4181266954373931</v>
+        <v>0.4115871684330171</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3648254542683653</v>
+        <v>0.3651664414307914</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4494582842930774</v>
+        <v>0.4109733006912827</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3315256995621059</v>
+        <v>0.3223441134034732</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6458848884198741</v>
+        <v>0.6402814071060988</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6257161927203497</v>
+        <v>0.6246697016518079</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7150990732079266</v>
+        <v>0.7158541737021304</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3761001850669305</v>
+        <v>0.3804955456691475</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4243265469342556</v>
+        <v>0.4211639177720246</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4137004212616397</v>
+        <v>0.385218300722924</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4985500537098664</v>
+        <v>0.4908673010857757</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3245752865377854</v>
+        <v>0.3188650281547857</v>
       </c>
     </row>
     <row r="19">
@@ -1369,7 +1369,7 @@
         <v>0.3271283062586951</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.293015993480899</v>
+        <v>0.2930159934808991</v>
       </c>
     </row>
     <row r="20">
@@ -1380,40 +1380,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.258390417246937</v>
+        <v>0.2584916572404595</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2149996241789227</v>
+        <v>0.2138618780434373</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2273823669044837</v>
+        <v>0.225529742196607</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2027387465668608</v>
+        <v>0.2041539082889035</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3497614453508551</v>
+        <v>0.3481299055301779</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3423844655941635</v>
+        <v>0.3411592332383934</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3497218498504102</v>
+        <v>0.349145205809814</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2915577825683068</v>
+        <v>0.2916600738202063</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2998622001105888</v>
+        <v>0.2982409999237129</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2815235292444955</v>
+        <v>0.2723327151114282</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2871105939474294</v>
+        <v>0.2846950736345913</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.255794784493149</v>
+        <v>0.2623504242230487</v>
       </c>
     </row>
     <row r="21">
@@ -1424,40 +1424,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3418639923984502</v>
+        <v>0.3434533710114525</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3163144554004514</v>
+        <v>0.3126409501419791</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3251467161930136</v>
+        <v>0.3249829150990406</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3125912677025443</v>
+        <v>0.3086932578046629</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4770271555561956</v>
+        <v>0.4774190371140655</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.484826962223694</v>
+        <v>0.4815307282467947</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.484033545160492</v>
+        <v>0.487562230691983</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3837390585694817</v>
+        <v>0.3800073746053139</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3714170716350577</v>
+        <v>0.371103540515008</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.362785042852672</v>
+        <v>0.3611093364895259</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3685971359134208</v>
+        <v>0.3687419514560318</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3265617220415276</v>
+        <v>0.3294420209424515</v>
       </c>
     </row>
     <row r="22">
@@ -1729,36 +1729,36 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7426</v>
+        <v>7425</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>972</v>
+        <v>998</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>6628</v>
+        <v>6790</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1774</v>
+        <v>1826</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1792</v>
+        <v>1836</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17122</v>
+        <v>17141</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1725</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="7">
@@ -1769,36 +1769,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19662</v>
+        <v>20171</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>8226</v>
+        <v>7792</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>15126</v>
+        <v>15889</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6107</v>
+        <v>6131</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8663</v>
+        <v>8542</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11877</v>
+        <v>12450</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>32157</v>
+        <v>33168</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>7250</v>
+        <v>7369</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14067</v>
+        <v>13705</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>14550</v>
+        <v>14709</v>
       </c>
     </row>
     <row r="8">
@@ -1901,40 +1901,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>37868</v>
+        <v>38090</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19170</v>
+        <v>19088</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13919</v>
+        <v>13571</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21267</v>
+        <v>21135</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>26742</v>
+        <v>27902</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16746</v>
+        <v>17079</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>14124</v>
+        <v>15089</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>15410</v>
+        <v>15689</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>70486</v>
+        <v>70212</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>41030</v>
+        <v>40587</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>32017</v>
+        <v>31516</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>41209</v>
+        <v>41560</v>
       </c>
     </row>
     <row r="11">
@@ -1945,40 +1945,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>62015</v>
+        <v>60798</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37671</v>
+        <v>35790</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30259</v>
+        <v>29237</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>43882</v>
+        <v>43461</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>44982</v>
+        <v>44527</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>34226</v>
+        <v>33394</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27030</v>
+        <v>27411</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>30013</v>
+        <v>30408</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>100588</v>
+        <v>99720</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>65229</v>
+        <v>64998</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>53974</v>
+        <v>53050</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>68289</v>
+        <v>69533</v>
       </c>
     </row>
     <row r="12">
@@ -2081,40 +2081,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23850</v>
+        <v>24440</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18599</v>
+        <v>18174</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22316</v>
+        <v>23365</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15728</v>
+        <v>14289</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>17188</v>
+        <v>17606</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26753</v>
+        <v>26531</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>18519</v>
+        <v>18801</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18178</v>
+        <v>18045</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>47200</v>
+        <v>46067</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>50238</v>
+        <v>49912</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45943</v>
+        <v>46642</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>37163</v>
+        <v>36887</v>
       </c>
     </row>
     <row r="15">
@@ -2125,40 +2125,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>44271</v>
+        <v>44147</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36148</v>
+        <v>35209</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43238</v>
+        <v>44126</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33922</v>
+        <v>34556</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33440</v>
+        <v>33859</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>44987</v>
+        <v>44540</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34400</v>
+        <v>34520</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>32710</v>
+        <v>32454</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>72821</v>
+        <v>73521</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>75561</v>
+        <v>75743</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>70755</v>
+        <v>72102</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>60159</v>
+        <v>60541</v>
       </c>
     </row>
     <row r="16">
@@ -2261,40 +2261,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22156</v>
+        <v>22363</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14237</v>
+        <v>14672</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18604</v>
+        <v>17653</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16363</v>
+        <v>17289</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7097</v>
+        <v>7135</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8286</v>
+        <v>8662</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14147</v>
+        <v>14387</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>34281</v>
+        <v>33956</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>32801</v>
+        <v>33305</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>27092</v>
+        <v>26467</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>35812</v>
+        <v>37658</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>56601</v>
+        <v>57091</v>
       </c>
     </row>
     <row r="19">
@@ -2305,40 +2305,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42585</v>
+        <v>43454</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30855</v>
+        <v>31762</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>37291</v>
+        <v>35556</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>36412</v>
+        <v>36552</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18703</v>
+        <v>18988</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22082</v>
+        <v>22257</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>29315</v>
+        <v>29709</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>52083</v>
+        <v>51981</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>56985</v>
+        <v>58163</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>48696</v>
+        <v>48602</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>61187</v>
+        <v>60852</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>82913</v>
+        <v>83573</v>
       </c>
     </row>
     <row r="20">
@@ -2441,40 +2441,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7095</v>
+        <v>7076</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3958</v>
+        <v>4620</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6517</v>
+        <v>6130</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9665</v>
+        <v>9472</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4868</v>
+        <v>4908</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9950</v>
+        <v>10231</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>12477</v>
+        <v>12281</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>11342</v>
+        <v>10878</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>11353</v>
+        <v>11044</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>19332</v>
+        <v>19781</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>25482</v>
+        <v>24810</v>
       </c>
     </row>
     <row r="23">
@@ -2485,40 +2485,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>19184</v>
+        <v>18884</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14887</v>
+        <v>14901</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20157</v>
+        <v>18431</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>23877</v>
+        <v>23216</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8984</v>
+        <v>8906</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>14760</v>
+        <v>14735</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>22024</v>
+        <v>22048</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>23231</v>
+        <v>23502</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>25371</v>
+        <v>25182</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>26640</v>
+        <v>24806</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>37713</v>
+        <v>37132</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>43425</v>
+        <v>42661</v>
       </c>
     </row>
     <row r="24">
@@ -2621,40 +2621,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>121827</v>
+        <v>121875</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>69949</v>
+        <v>69579</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>79157</v>
+        <v>78512</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>77313</v>
+        <v>77852</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>76990</v>
+        <v>76631</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>73556</v>
+        <v>73293</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>75644</v>
+        <v>75519</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>99810</v>
+        <v>99845</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>207386</v>
+        <v>206265</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>152074</v>
+        <v>147109</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>162051</v>
+        <v>160687</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>185113</v>
+        <v>189857</v>
       </c>
     </row>
     <row r="27">
@@ -2665,40 +2665,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>161183</v>
+        <v>161933</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>102912</v>
+        <v>101717</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>113191</v>
+        <v>113134</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>119204</v>
+        <v>117718</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>105004</v>
+        <v>105090</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>104158</v>
+        <v>103450</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>104695</v>
+        <v>105459</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>131367</v>
+        <v>130090</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>256874</v>
+        <v>256657</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>195970</v>
+        <v>195065</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>208043</v>
+        <v>208125</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>236325</v>
+        <v>238409</v>
       </c>
     </row>
     <row r="28">
